--- a/صيدليات دكتور مصطفي طلعت_2026-01-04_09-50.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-04_09-50.xlsx
@@ -44,6 +44,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -51,9 +57,6 @@
   </si>
   <si>
     <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:0</t>
   </si>
   <si>
     <t>CONCOR 5MG 30 TAB</t>
@@ -785,7 +788,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10">
@@ -811,7 +814,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="10">
@@ -837,7 +840,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="10">
@@ -857,17 +860,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>82.920000000000002</v>
+        <v>72</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>2.3300000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -875,7 +878,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -883,17 +886,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>16</v>
+        <v>82.920000000000002</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>0.33000000000000002</v>
+        <v>2.3300000000000001</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -901,7 +904,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -909,17 +912,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>169.19999999999999</v>
+        <v>16</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>1</v>
+        <v>0.33000000000000002</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -927,7 +930,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -935,13 +938,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>108</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -953,7 +956,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -961,13 +964,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
@@ -979,7 +982,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -987,17 +990,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1005,7 +1008,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1013,17 +1016,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1039,7 +1042,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1049,7 +1052,7 @@
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1065,17 +1068,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1083,7 +1086,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1091,17 +1094,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1109,7 +1112,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1117,17 +1120,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1143,17 +1146,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1161,7 +1164,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1169,17 +1172,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1187,7 +1190,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1195,13 +1198,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="10">
@@ -1209,37 +1212,63 @@
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
-      <c r="K23" s="11">
-        <v>1554.1199999999999</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c t="s" r="A24" s="12">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c t="s" r="B23" s="7">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c t="s" r="H23" s="8">
         <v>41</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c t="s" r="F24" s="13">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9">
+        <v>30</v>
+      </c>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="K24" s="11">
+        <v>1594.1199999999999</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="12">
         <v>42</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-      <c t="s" r="I24" s="15">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c t="s" r="F25" s="13">
         <v>43</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c t="s" r="I25" s="15">
+        <v>44</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="71">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1304,10 +1333,13 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="I25:N25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
